--- a/Unidad 4/Neville.xlsx
+++ b/Unidad 4/Neville.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1ZW05LA_RS4\Documents\ITQ\4 semestre\Métodos Numéricos\metodos-numericos\Unidad 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160CDC00-4287-49BA-8BEC-8D3C2E85813F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF56E39-CF35-47DD-A1BA-06654C2EF4D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7486C80-7E6F-4843-A190-70176FC867F4}"/>
+    <workbookView xWindow="2124" yWindow="912" windowWidth="17280" windowHeight="8964" xr2:uid="{F7486C80-7E6F-4843-A190-70176FC867F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,12 +465,12 @@
         <v>0.45540219999999998</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:E6" si="0">( ( ($A$8-$A3) * B4 ) - ( ($A$8-$A4) * B3 ) ) / ($A4-$A3)</f>
+        <f t="shared" ref="C4:E5" si="0">( ( ($A$8-$A3) * B4 ) - ( ($A$8-$A4) * B3 ) ) / ($A4-$A3)</f>
         <v>0.51029679999999999</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.5146461555555556</v>
+        <f>( ( ($A$8-$A2) * C4 ) - ( ($A$8-$A4) * C3 ) ) / ($A4-$A2)</f>
+        <v>0.5124714777777778</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -481,16 +481,16 @@
         <v>0.28181859999999997</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>( ( ($A$8-$A4) * B5 ) - ( ($A$8-$A5) * B4 ) ) / ($A5-$A4)</f>
         <v>0.51326340000000004</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.50930793333333324</v>
+        <f t="shared" ref="D5:D6" si="1">( ( ($A$8-$A3) * C5 ) - ( ($A$8-$A5) * C4 ) ) / ($A5-$A3)</f>
+        <v>0.51128566666666664</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.51642556296296316</v>
+        <f>( ( ($A$8-$A2) * D5 ) - ( ($A$8-$A5) * D4 ) ) / ($A5-$A2)</f>
+        <v>0.51181269382716044</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -505,16 +505,16 @@
         <v>0.51042699999999974</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6" si="1">( ( ($A$8-$A5) * C6 ) - ( ($A$8-$A6) * C5 ) ) / ($A6-$A5)</f>
-        <v>0.51704526666666717</v>
+        <f t="shared" si="1"/>
+        <v>0.51373613333333346</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:F6" si="2">( ( ($A$8-$A5) * D6 ) - ( ($A$8-$A6) * D5 ) ) / ($A6-$A5)</f>
-        <v>0.49899148888888795</v>
+        <f>( ( ($A$8-$A3) * D6 ) - ( ($A$8-$A6) * D5 ) ) / ($A6-$A3)</f>
+        <v>0.51183021481481483</v>
       </c>
       <c r="F6">
-        <f>( ( ($A$8-$A5) * E6 ) - ( ($A$8-$A6) * E5 ) ) / ($A6-$A5)</f>
-        <v>0.53967099506173</v>
+        <f>( ( ($A$8-$A2) * E6 ) - ( ($A$8-$A6) * E5 ) ) / ($A6-$A2)</f>
+        <v>0.51181999423868307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
